--- a/src/report_manager/apps/templates/files/ExperimentalDesign_Pxxxxxxx.xlsx
+++ b/src/report_manager/apps/templates/files/ExperimentalDesign_Pxxxxxxx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plh450/Clinical_Proteomics/CKG/CKG/src/report_manager/apps/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\work\ClinicalKnowledgeGraph(CKG)\code\src\report_manager\apps\templates\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E942145E-3EEF-8643-A810-50661637FA12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3B0E62-838C-4797-8EB1-C589E66F3C25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64200" yWindow="1140" windowWidth="27640" windowHeight="16940" xr2:uid="{E92BDBC7-3C48-BA49-8DFC-1AAB67ABA1A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E92BDBC7-3C48-BA49-8DFC-1AAB67ABA1A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>subject external_id</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>analytical_sample external_id</t>
+  </si>
+  <si>
+    <t>grouping1</t>
+  </si>
+  <si>
+    <t>grouping2</t>
   </si>
 </sst>
 </file>
@@ -393,19 +399,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCFD66A-270E-EF49-8D2B-516167C6E6BF}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,6 +421,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
